--- a/data_test/Wafer300_sSOI.xlsx
+++ b/data_test/Wafer300_sSOI.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FE55A-C8F0-E742-A5B6-B8C93CEF80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,9 +63,6 @@
     <t>W09</t>
   </si>
   <si>
-    <t>wafer</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -68,11 +77,14 @@
   <si>
     <t>Si peak _corrected (cm-1)</t>
   </si>
+  <si>
+    <t>Wafer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,44 +402,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D442"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -452,7 +462,7 @@
         <v>-5.4046575000013204E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +487,7 @@
         <v>-4.8822224999999261E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -502,7 +512,7 @@
         <v>-5.0866725000005317E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -527,7 +537,7 @@
         <v>-3.9545850000003498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -552,7 +562,7 @@
         <v>-6.2542125000002211E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -577,7 +587,7 @@
         <v>-4.8032700000014472E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -602,7 +612,7 @@
         <v>-3.5302425000010372E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -627,7 +637,7 @@
         <v>-4.5907725000013784E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -652,7 +662,7 @@
         <v>-3.2505375000000357E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -677,7 +687,7 @@
         <v>-3.9454500000011591E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -702,7 +712,7 @@
         <v>-3.4591200000000981E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -727,7 +737,7 @@
         <v>-4.4002425000002461E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -752,7 +762,7 @@
         <v>-3.8976000000008074E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -777,7 +787,7 @@
         <v>-3.7834124999997984E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -802,7 +812,7 @@
         <v>-5.2663274999994486E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -827,7 +837,7 @@
         <v>-4.5139949999998805E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -852,7 +862,7 @@
         <v>-5.3602874999996004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -877,7 +887,7 @@
         <v>-6.8416800000006217E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -902,7 +912,7 @@
         <v>-6.4623600000013826E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -927,7 +937,7 @@
         <v>-3.3912600000008127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -952,7 +962,7 @@
         <v>-5.5020975000001048E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -977,7 +987,7 @@
         <v>-4.9159350000013549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>-4.9183275000002594E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>-5.229134999999388E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>-7.1333475000010929E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>-7.0963725000004849E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>-6.7383674999993565E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>-6.3359925000014528E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>-7.1742375000017095E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>-6.018007500000664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>-5.3768174999999016E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>-6.2296350000004566E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>-4.8435075000012373E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>-4.6799475000012476E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>-3.9056475000002706E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>-4.7752125000005773E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>-3.3294900000009876E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>-3.1098149999992587E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>-2.3107200000015381E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>-2.3533500000002334E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1462,7 @@
         <v>-3.3060000000009492E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>-2.261130000000634E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>-5.2650225000002708E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>-4.1216250000014443E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1562,7 @@
         <v>-3.3414525000004573E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>-5.3679000000001621E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>-4.7277975000016001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>-3.4140975000000254E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>-2.4162074999997854E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1677,7 +1687,7 @@
         <v>-3.2042099999983122E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>-4.9566075000000466E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1737,7 @@
         <v>-4.1607749999990347E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>-5.99364750000035E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>-4.7923949999992319E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>-6.5341350000006737E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>-5.4170549999996924E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>-6.0693374999996476E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>-5.9488424999997278E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1902,7 +1912,7 @@
         <v>-4.5163874999987856E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>-3.0821924999997634E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>-1.8728924999991819E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>-4.8633000000007198E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>-6.3024974999994751E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>-3.6633524999987802E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>-4.5146475000007055E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>-5.7180749999988054E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>-5.8688024999990492E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>-5.8074675000005981E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>-7.1185574999988718E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2187,7 @@
         <v>-5.5736549999999455E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>-3.546772499998866E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2237,7 @@
         <v>-5.3013450000000545E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>-5.3918249999991022E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>-6.8671275000006624E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>-3.324705000000705E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2337,7 @@
         <v>-2.8570799999993995E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -2352,7 +2362,7 @@
         <v>-4.5300899999988077E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2387,7 @@
         <v>-5.7528749999999601E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>-4.3413000000007002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2437,7 @@
         <v>-4.4915924999995693E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>-6.3803625000006997E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>-3.9578474999995304E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -2502,7 +2512,7 @@
         <v>-6.5922074999999442E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -2527,7 +2537,7 @@
         <v>-6.5711099999988101E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2562,7 @@
         <v>-4.7001749999996317E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>-7.026772500000647E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>-6.4101599999996497E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>-6.1126199999991686E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>-5.2735049999986357E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -2677,7 +2687,7 @@
         <v>-6.3007574999989227E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>-5.407267499999676E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -2727,7 +2737,7 @@
         <v>-6.3251174999992374E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>-3.7386074999991761E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -2777,7 +2787,7 @@
         <v>-4.3345575000004147E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>-7.2449249999988016E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>-5.2789424999997434E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>-4.8511199999993267E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -2877,7 +2887,7 @@
         <v>-6.2437724999993803E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>-4.4561400000000619E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2937,7 @@
         <v>-6.4105949999985506E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>-4.8489449999998727E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>-5.1123375000000235E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3012,7 @@
         <v>-6.1139249999983464E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>-7.2705899999982934E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3062,7 @@
         <v>-7.1503125000002971E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3087,7 @@
         <v>-4.0276649999988194E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>-5.9268749999983182E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>-4.5516224999988426E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3162,7 @@
         <v>-4.5005099999993095E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3187,7 @@
         <v>-5.1725849999987472E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3202,7 +3212,7 @@
         <v>-6.8049224999994634E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>-3.5145824999985392E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>-4.9631324999984086E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3277,7 +3287,7 @@
         <v>-4.177522499998787E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>-6.6448425000005779E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>-5.5062299999995616E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3362,7 @@
         <v>-5.0431724999990879E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3387,7 @@
         <v>-5.6565224999984308E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>-3.7368674999986237E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3427,7 +3437,7 @@
         <v>-4.8778724999985458E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>-4.3763174999988337E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>-6.3971100000004527E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>-5.9042549999985566E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>-4.3099800000006495E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3552,7 +3562,7 @@
         <v>-6.5791574999982741E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>-5.129955000000052E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>-4.9983674999984656E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>-5.2554524999997056E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3662,7 @@
         <v>-4.7843474999997679E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>-6.1700400000000856E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>-4.3967624999991413E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3727,7 +3737,7 @@
         <v>-4.1577299999993045E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>-3.5030550000004441E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3787,7 @@
         <v>-4.3795800000004874E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>-4.9557374999997704E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3837,7 @@
         <v>-4.9959749999995605E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>-5.1801974999993089E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -3877,7 +3887,7 @@
         <v>-4.2777900000003227E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>-5.2015124999998934E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>-4.1955750000001901E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>-4.1897025000001802E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -3977,7 +3987,7 @@
         <v>-4.7652074999986381E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>-2.5930349999984229E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4037,7 @@
         <v>-3.7701449999986779E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>-6.213539999999057E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>-5.1604049999998264E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>-4.2453825000005455E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>-3.4754325000009488E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4162,7 @@
         <v>-4.7371500000002412E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -4177,7 +4187,7 @@
         <v>-4.4811524999987286E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>-3.5341575000010436E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -4227,7 +4237,7 @@
         <v>-3.9569774999992549E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4262,7 @@
         <v>-4.226242499999415E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +4287,7 @@
         <v>-5.0020649999990209E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -4302,7 +4312,7 @@
         <v>-4.9402949999991959E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4337,7 @@
         <v>-3.4839149999993137E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4362,7 @@
         <v>-3.6272475000009193E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4387,7 @@
         <v>-3.7375199999994495E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4412,7 @@
         <v>-4.8880949999999361E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4437,7 @@
         <v>-4.7138774999996545E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4452,7 +4462,7 @@
         <v>-4.5701099999991467E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>-5.3546324999990416E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +4512,7 @@
         <v>-4.5896849999991787E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4527,7 +4537,7 @@
         <v>-4.1244524999992503E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>-4.0061324999987845E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>-3.5367674999993992E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4612,7 @@
         <v>-3.8264774999998676E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>-4.6592849999990166E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4652,7 +4662,7 @@
         <v>-4.0631175000007999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4677,7 +4687,7 @@
         <v>-5.089934999999713E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4702,7 +4712,7 @@
         <v>-4.0592025000007935E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4727,7 +4737,7 @@
         <v>-5.4227100000002505E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>-3.9532799999986989E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4777,7 +4787,7 @@
         <v>-3.9643725000003655E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>-4.7969625000000633E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4827,7 +4837,7 @@
         <v>-5.7935475000011248E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4852,7 +4862,7 @@
         <v>-5.1741074999998492E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +4887,7 @@
         <v>-4.3828424999996687E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4902,7 +4912,7 @@
         <v>-2.8518600000002153E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +4937,7 @@
         <v>-9.0645299999989964E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4952,7 +4962,7 @@
         <v>-2.5523624999997309E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>-4.0000424999993241E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5002,7 +5012,7 @@
         <v>-3.3740774999996857E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>-2.8531649999993931E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>-2.2367700000003196E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>-3.6487800000009542E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>-3.8556225000004642E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -5127,7 +5137,7 @@
         <v>-5.6093249999989041E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -5152,7 +5162,7 @@
         <v>-3.1778925000004676E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5177,7 +5187,7 @@
         <v>-5.2917749999994899E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>-4.2249375000002372E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>-3.6311625000009257E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>-3.1950749999991215E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5287,7 @@
         <v>-4.9944525000009322E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>-3.7314299999999891E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -5327,7 +5337,7 @@
         <v>-3.2909924999992769E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>-6.579592499999648E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5377,7 +5387,7 @@
         <v>-6.87843750000178E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -5402,7 +5412,7 @@
         <v>-6.4747574999997545E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -5427,7 +5437,7 @@
         <v>-3.9530625000017208E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5462,7 @@
         <v>-6.0290999999998575E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>-5.7783225000000014E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>-6.2548650000010461E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>-5.6217224999997484E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -5552,7 +5562,7 @@
         <v>-6.2455124999999327E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5587,7 @@
         <v>-3.8775899999994007E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -5602,7 +5612,7 @@
         <v>-6.4408275000013476E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5637,7 @@
         <v>-6.9421650000016086E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5662,7 @@
         <v>-7.7975925000005192E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>-8.504467500001113E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -5702,7 +5712,7 @@
         <v>-5.7465675000010492E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>-6.4014599999993607E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +5762,7 @@
         <v>-6.4377825000016167E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>-8.4646650000002238E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>-5.0690550000005032E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>-5.9077349999996615E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>-7.3080000000002768E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5877,7 +5887,7 @@
         <v>-5.1199500000005858E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -5902,7 +5912,7 @@
         <v>-5.5338525000015293E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5937,7 @@
         <v>-6.1661250000000792E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -5952,7 +5962,7 @@
         <v>-5.2454475000002387E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -5977,7 +5987,7 @@
         <v>-7.1972925000003726E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -6002,7 +6012,7 @@
         <v>-7.1155125000016139E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -6027,7 +6037,7 @@
         <v>-5.3487600000015047E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -6052,7 +6062,7 @@
         <v>-6.7320600000004449E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>-7.5835725000018214E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>-5.2193474999993723E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>-7.0474350000004057E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6152,7 +6162,7 @@
         <v>-4.7926125000011553E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -6177,7 +6187,7 @@
         <v>-6.6581100000016991E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>-6.4564875000013733E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -6227,7 +6237,7 @@
         <v>-8.452485000001303E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -6252,7 +6262,7 @@
         <v>-7.3534575000017241E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -6277,7 +6287,7 @@
         <v>-6.5547975000004324E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -6302,7 +6312,7 @@
         <v>-6.0410625000018002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>-4.8696074999996314E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>-6.0432375000012542E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>-4.7036550000007366E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>-5.8505325000006679E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -6427,7 +6437,7 @@
         <v>-3.1848525000002043E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>-7.3686825000003744E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -6477,7 +6487,7 @@
         <v>-7.2505799999993598E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +6512,7 @@
         <v>-6.9191100000004724E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -6527,7 +6537,7 @@
         <v>-6.9984975000003266E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -6552,7 +6562,7 @@
         <v>-6.2109300000007008E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -6577,7 +6587,7 @@
         <v>-6.324465000000884E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>-4.5507525000010388E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>-5.5693050000010375E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>-4.3336875000001385E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>-7.4654700000008067E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -6702,7 +6712,7 @@
         <v>-8.3489550000005866E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6727,7 +6737,7 @@
         <v>-7.4504625000016061E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -6752,7 +6762,7 @@
         <v>-8.3511300000000399E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -6777,7 +6787,7 @@
         <v>-8.1181874999996642E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -6802,7 +6812,7 @@
         <v>-9.4160100000017621E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>-8.4159450000020689E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -6852,7 +6862,7 @@
         <v>-0.10365615000000275</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>-0.11618414999999828</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -6902,7 +6912,7 @@
         <v>-0.10857382499999972</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -6927,7 +6937,7 @@
         <v>-9.3620700000019499E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>-9.1922025000005764E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>-9.354022500000013E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>-0.1029775500000099</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +7037,7 @@
         <v>-9.89016000000143E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -7052,7 +7062,7 @@
         <v>-8.9427299999998974E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +7087,7 @@
         <v>-8.4661875000013251E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -7102,7 +7112,7 @@
         <v>-9.626985000000729E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -7127,7 +7137,7 @@
         <v>-9.7677075000015059E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -7152,7 +7162,7 @@
         <v>-8.2919700000010435E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>-8.2415099999998631E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -7202,7 +7212,7 @@
         <v>-8.9951475000010814E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -7227,7 +7237,7 @@
         <v>-8.8629075000011423E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -7252,7 +7262,7 @@
         <v>-0.12529522500001575</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -7277,7 +7287,7 @@
         <v>-8.214757500000644E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>-8.5938600000004334E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>-8.3976750000012146E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -7352,7 +7362,7 @@
         <v>-8.1769124999997583E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -7377,7 +7387,7 @@
         <v>-5.3894325000001971E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -7402,7 +7412,7 @@
         <v>-6.068902500000746E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>-4.5896850000016511E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>-5.3598525000006988E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>-5.5429875000007199E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>-5.40444000000187E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>-4.7586825000002761E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -7552,7 +7562,7 @@
         <v>-4.3813200000010398E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -7577,7 +7587,7 @@
         <v>-4.2960600000011763E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -7602,7 +7612,7 @@
         <v>-5.7931124999997509E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -7627,7 +7637,7 @@
         <v>-7.2819000000018827E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -7652,7 +7662,7 @@
         <v>-5.1534450000000905E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -7677,7 +7687,7 @@
         <v>-5.4923100000000884E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -7702,7 +7712,7 @@
         <v>-4.3804500000007636E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>-6.4849800000011434E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>-5.5427700000012695E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -7777,7 +7787,7 @@
         <v>-5.7254699999999159E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -7802,7 +7812,7 @@
         <v>-4.7810850000005872E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -7827,7 +7837,7 @@
         <v>-6.7057425000001267E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -7852,7 +7862,7 @@
         <v>-3.9737249999990072E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -7877,7 +7887,7 @@
         <v>-5.5991024999999868E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -7902,7 +7912,7 @@
         <v>-4.2140625000004948E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -7927,7 +7937,7 @@
         <v>-4.7360625000005145E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -7952,7 +7962,7 @@
         <v>-5.9919074999997976E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -7977,7 +7987,7 @@
         <v>-4.7025674999985369E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -8002,7 +8012,7 @@
         <v>-4.2951899999984278E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>-5.798767500000309E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -8052,7 +8062,7 @@
         <v>-5.8050749999992206E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8087,7 @@
         <v>-3.9408825000003277E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -8102,7 +8112,7 @@
         <v>-5.5951874999999804E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -8127,7 +8137,7 @@
         <v>-4.8393749999993074E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -8152,7 +8162,7 @@
         <v>-5.5799624999988563E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -8177,7 +8187,7 @@
         <v>-4.296059999998704E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -8202,7 +8212,7 @@
         <v>-4.0883474999989178E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -8227,7 +8237,7 @@
         <v>-4.8141449999987172E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -8252,7 +8262,7 @@
         <v>-4.1699100000006976E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -8277,7 +8287,7 @@
         <v>-6.4410450000007988E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -8302,7 +8312,7 @@
         <v>-4.6714650000004097E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>-4.4796300000000996E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -8352,7 +8362,7 @@
         <v>-2.6880825000007748E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -8377,7 +8387,7 @@
         <v>-5.626507500000031E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -8402,7 +8412,7 @@
         <v>-5.015767499999043E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>-5.1395250000006172E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -8452,7 +8462,7 @@
         <v>-6.0243149999995749E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -8477,7 +8487,7 @@
         <v>-6.8603850000003769E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -8502,7 +8512,7 @@
         <v>-8.0642474999998506E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -8527,7 +8537,7 @@
         <v>-5.5747424999996721E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>-0.1002152999999862</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8587,7 @@
         <v>-4.1255399999989777E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>-3.2551049999983948E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -8627,7 +8637,7 @@
         <v>-4.1409824999995522E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -8652,7 +8662,7 @@
         <v>-3.6644399999985068E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -8677,7 +8687,7 @@
         <v>-4.9226774999991674E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -8702,7 +8712,7 @@
         <v>-3.5850524999986533E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -8727,7 +8737,7 @@
         <v>-5.0496974999999222E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -8752,7 +8762,7 @@
         <v>-3.572655000000282E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -8777,7 +8787,7 @@
         <v>-5.3744249999985241E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -8802,7 +8812,7 @@
         <v>-2.7450675000003172E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -8827,7 +8837,7 @@
         <v>-4.6834274999998794E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>-4.6686375000001307E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>-2.9405999999987102E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -8902,7 +8912,7 @@
         <v>-3.1861574999993821E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -8927,7 +8937,7 @@
         <v>-4.1810024999998918E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -8952,7 +8962,7 @@
         <v>-5.4414150000000064E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -8977,7 +8987,7 @@
         <v>-3.9815549999990194E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -9002,7 +9012,7 @@
         <v>-5.8390050000000998E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -9027,7 +9037,7 @@
         <v>-5.5201499999990349E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -9052,7 +9062,7 @@
         <v>-3.715552500000513E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>-5.1945525000001568E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9112,7 @@
         <v>-4.9853174999992686E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -9127,7 +9137,7 @@
         <v>-5.6158499999997391E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -9152,7 +9162,7 @@
         <v>-3.2816400000006352E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -9177,7 +9187,7 @@
         <v>-3.4438949999989747E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -9202,7 +9212,7 @@
         <v>-5.1197325000011347E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9237,7 @@
         <v>-4.0296224999988223E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>-6.2131050000001548E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -9277,7 +9287,7 @@
         <v>-8.1064424999996443E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -9302,7 +9312,7 @@
         <v>-6.4460475000005318E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -9327,7 +9337,7 @@
         <v>-4.9972800000012113E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>8</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>-6.7187924999993237E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -9377,7 +9387,7 @@
         <v>-5.8070324999992234E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -9402,7 +9412,7 @@
         <v>-5.0362124999993513E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -9427,7 +9437,7 @@
         <v>-4.2977999999992564E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -9452,7 +9462,7 @@
         <v>-5.1882449999987729E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -9477,7 +9487,7 @@
         <v>-6.9378150000002275E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -9502,7 +9512,7 @@
         <v>-5.0125049999998623E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -9527,7 +9537,7 @@
         <v>-4.3510875000007158E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -9552,7 +9562,7 @@
         <v>-4.4113349999994396E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -9577,7 +9587,7 @@
         <v>-4.8915750000010402E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -9602,7 +9612,7 @@
         <v>-4.9218074999988912E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -9627,7 +9637,7 @@
         <v>-5.6260725000011294E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -9652,7 +9662,7 @@
         <v>-6.9776175000011167E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -9677,7 +9687,7 @@
         <v>-7.128562500000811E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -9702,7 +9712,7 @@
         <v>-6.9339000000002218E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -9727,7 +9737,7 @@
         <v>-7.7316899999987643E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +9762,7 @@
         <v>-6.9945825000003195E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -9777,7 +9787,7 @@
         <v>-6.9328125000004945E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -9802,7 +9812,7 @@
         <v>-4.6303575000003434E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -9827,7 +9837,7 @@
         <v>-5.8052925000011441E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>-5.9407950000002645E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -9877,7 +9887,7 @@
         <v>-5.7752775000002712E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +9912,7 @@
         <v>-4.7149649999993812E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -9927,7 +9937,7 @@
         <v>-6.5730674999988137E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -9952,7 +9962,7 @@
         <v>-4.5142124999993316E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -9977,7 +9987,7 @@
         <v>-5.8366125000011947E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -10002,7 +10012,7 @@
         <v>-5.7735374999997188E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>-5.1262574999994967E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -10052,7 +10062,7 @@
         <v>-4.6260074999989624E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -10077,7 +10087,7 @@
         <v>-5.9588474999991946E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -10102,7 +10112,7 @@
         <v>-4.8324149999995708E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -10127,7 +10137,7 @@
         <v>-4.0720350000005394E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -10152,7 +10162,7 @@
         <v>-5.8448775000001091E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>-6.3473025000000974E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>-6.2333325000010119E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -10227,7 +10237,7 @@
         <v>-6.1559025000011612E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -10252,7 +10262,7 @@
         <v>-7.3871699999982068E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -10277,7 +10287,7 @@
         <v>-9.344234999999998E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -10302,7 +10312,7 @@
         <v>-7.9494075000004896E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -10327,7 +10337,7 @@
         <v>-6.5232599999984583E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -10352,7 +10362,7 @@
         <v>-6.4356074999996904E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -10377,7 +10387,7 @@
         <v>-5.9599349999989212E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -10402,7 +10412,7 @@
         <v>-7.0593974999998754E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -10427,7 +10437,7 @@
         <v>-9.217650000000617E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -10452,7 +10462,7 @@
         <v>-6.2987999999989205E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>-8.3467799999986589E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -10502,7 +10512,7 @@
         <v>-0.10403677500000612</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -10527,7 +10537,7 @@
         <v>-8.9481674999985328E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -10552,7 +10562,7 @@
         <v>-7.404787499998236E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -10577,7 +10587,7 @@
         <v>-8.1779999999994857E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -10602,7 +10612,7 @@
         <v>-6.4843275000003184E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -10627,7 +10637,7 @@
         <v>-7.0193774999995351E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -10652,7 +10662,7 @@
         <v>-5.8720649999982298E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -10677,7 +10687,7 @@
         <v>-7.4780849999986285E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -10702,7 +10712,7 @@
         <v>-6.364049999999849E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>-7.1707575000006046E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -10752,7 +10762,7 @@
         <v>-7.049609999999859E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>-5.9638499999989276E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -10802,7 +10812,7 @@
         <v>-7.1405250000002807E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -10827,7 +10837,7 @@
         <v>-7.5924899999990886E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -10852,7 +10862,7 @@
         <v>-8.8355024999986251E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -10877,7 +10887,7 @@
         <v>-8.3804925000000877E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -10902,7 +10912,7 @@
         <v>-9.0754049999987388E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -10927,7 +10937,7 @@
         <v>-0.10824322499999368</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -10952,7 +10962,7 @@
         <v>-9.3255300000002414E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -10977,7 +10987,7 @@
         <v>-0.10044584999999756</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -11002,7 +11012,7 @@
         <v>-9.4036124999984455E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -11027,7 +11037,7 @@
         <v>-8.7980924999991147E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -11052,7 +11062,7 @@
         <v>-7.444155000000223E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>-7.089630000000198E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -11102,7 +11112,7 @@
         <v>-7.8471824999989503E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -11127,7 +11137,7 @@
         <v>-8.0131350000003182E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -11152,7 +11162,7 @@
         <v>-5.6871900000001287E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -11177,7 +11187,7 @@
         <v>-6.9236774999988315E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -11202,7 +11212,7 @@
         <v>-5.9190449999983061E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -11227,7 +11237,7 @@
         <v>-7.9744199999991563E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -11252,7 +11262,7 @@
         <v>-7.6573049999986431E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -11277,7 +11287,7 @@
         <v>-6.4534424999991694E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -11302,7 +11312,7 @@
         <v>-7.3236600000003024E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -11327,7 +11337,7 @@
         <v>-6.544357499999591E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -11352,7 +11362,7 @@
         <v>-6.297494999999742E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -11377,7 +11387,7 @@
         <v>-6.9343349999991227E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -11402,7 +11412,7 @@
         <v>-6.9667424999989014E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>-8.0000849999986481E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>9</v>
       </c>
